--- a/팀원 역할 분배.xlsx
+++ b/팀원 역할 분배.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TodaysRecipe_Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_TodaysRecipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015FC67-0968-4198-B545-864902E7493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6895A15A-AE07-4A6D-AE78-700E6DB5286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42075" yWindow="3675" windowWidth="19920" windowHeight="11385" xr2:uid="{37470F1D-CB64-4F51-826B-46F3CC0EAABB}"/>
+    <workbookView xWindow="13935" yWindow="3795" windowWidth="19920" windowHeight="11040" xr2:uid="{37470F1D-CB64-4F51-826B-46F3CC0EAABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>관리자 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,54 @@
   </si>
   <si>
     <t>회원 및 관리자 아이디 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/admin으로 로그인 시 관리자 페이지로 이동하게끔 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문완료시 Goods 테이블의 gStock이 주문한 개수만큼 깎이도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문하려고 하는 양보다 gStock에 남아있는 양이 적은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsController의 orderDone 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 파악 =&gt; 재고 - 주문수량 체크 =&gt; 이상없다면 주문완료 후 재고 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 파악 =&gt; 재고 - 주문수량 체크 =&gt; 0보다 작은 경우 cartList(장바구니)로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 목록으로 돌아간 후 주문 불가 메시지 표출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 상세 화면에 재고 수량 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsDTO에 gStock 변수 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsRetrieve.jsp에 재고관련 항목 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 UI변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,16 +983,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A28E03-EC08-49D5-8C73-4CC496017E81}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="53.125" customWidth="1"/>
+    <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="69.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
@@ -1250,7 +1298,61 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
